--- a/tabelas_template/DISPLAY REALME.xlsx
+++ b/tabelas_template/DISPLAY REALME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58401B9A-2771-4A6C-844E-EF88A829C7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0941E0-E871-4785-BE55-3693F57EF245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1980" windowWidth="15375" windowHeight="7785" xr2:uid="{D47AD920-1FFE-43C4-9DD6-A04F3C2E19FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D47AD920-1FFE-43C4-9DD6-A04F3C2E19FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>DISPLAY REALME</t>
   </si>
@@ -47,9 +47,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -67,9 +64,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 80,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -87,9 +81,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -124,9 +115,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -144,9 +132,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -239,9 +224,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -259,9 +241,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -286,9 +265,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -415,9 +391,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 130,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -457,15 +430,15 @@
       </rPr>
       <t xml:space="preserve"> (6 MESES DE GARANTIA)</t>
     </r>
-  </si>
-  <si>
-    <t>R$ 260,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -561,25 +534,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFA77F-69B3-4917-A661-CFF2E5404AD1}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,177 +884,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="B7" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="B8" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B9" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="B10" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B11" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="B12" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="B13" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="B14" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B16" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B18" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="B19" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B20" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B21" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
+      <c r="B22" s="7">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
